--- a/StructureDefinition-ext-R5-StructureMap.group.xlsx
+++ b/StructureDefinition-ext-R5-StructureMap.group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -486,15 +486,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>If this is the default rule set to apply for the source type, or this combination of types.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-map-group-type-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:documentation</t>
   </si>
   <si>
@@ -651,9 +642,6 @@
   </si>
   <si>
     <t>Extension.extension:input.extension:mode.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-map-input-mode-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:documentation</t>
@@ -1010,12 +998,6 @@
     <t>Extension.extension:rule.extension:source.extension:listMode.value[x]</t>
   </si>
   <si>
-    <t>If field is a list, how to manage the source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-map-source-list-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:rule.extension:source.extension:variable</t>
   </si>
   <si>
@@ -1286,12 +1268,6 @@
     <t>Extension.extension:rule.extension:target.extension:listMode.value[x]</t>
   </si>
   <si>
-    <t>If field is a list, how to manage the production.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-map-target-list-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:rule.extension:target.extension:listRuleId</t>
   </si>
   <si>
@@ -1352,12 +1328,6 @@
   </si>
   <si>
     <t>Extension.extension:rule.extension:target.extension:transform.value[x]</t>
-  </si>
-  <si>
-    <t>How data is copied/created.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-map-transform-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:rule.extension:target.extension:parameter</t>
@@ -1936,8 +1906,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.46875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3903,13 +3873,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3947,13 +3917,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3978,14 +3948,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4054,7 +4024,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -4157,7 +4127,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4262,7 +4232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4305,7 +4275,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4367,7 +4337,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4396,10 +4366,10 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4470,13 +4440,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4501,16 +4471,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4579,7 +4549,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4682,7 +4652,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4785,7 +4755,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
@@ -4816,14 +4786,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4892,10 +4862,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4995,10 +4965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5100,10 +5070,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5143,7 +5113,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -5205,10 +5175,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5234,10 +5204,10 @@
         <v>124</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5308,13 +5278,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5339,14 +5309,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5415,10 +5385,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5518,10 +5488,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5623,10 +5593,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5666,7 +5636,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5728,10 +5698,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5757,10 +5727,10 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5831,13 +5801,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5862,14 +5832,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5938,10 +5908,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6041,10 +6011,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6146,10 +6116,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6189,7 +6159,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -6251,10 +6221,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6280,10 +6250,10 @@
         <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6310,13 +6280,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6354,13 +6324,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6385,14 +6355,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6461,10 +6431,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6564,10 +6534,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6669,10 +6639,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6712,7 +6682,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6774,10 +6744,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6803,10 +6773,10 @@
         <v>87</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6877,7 +6847,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -6920,7 +6890,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6982,7 +6952,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7008,13 +6978,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7085,13 +7055,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7116,14 +7086,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7192,7 +7162,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7295,7 +7265,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7398,7 +7368,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
@@ -7429,14 +7399,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7505,10 +7475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7608,10 +7578,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7713,10 +7683,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7756,7 +7726,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7818,10 +7788,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7847,10 +7817,10 @@
         <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7921,13 +7891,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7952,14 +7922,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8028,10 +7998,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8131,10 +8101,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8234,13 +8204,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8265,14 +8235,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8341,10 +8311,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8444,10 +8414,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8549,10 +8519,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8592,7 +8562,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8654,10 +8624,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8683,10 +8653,10 @@
         <v>124</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8757,13 +8727,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8788,14 +8758,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8864,10 +8834,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8967,10 +8937,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9072,10 +9042,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9115,7 +9085,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9177,10 +9147,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9203,13 +9173,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9280,13 +9250,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9311,14 +9281,14 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9387,10 +9357,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9490,10 +9460,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9595,10 +9565,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9638,7 +9608,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9700,10 +9670,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9729,10 +9699,10 @@
         <v>87</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9803,13 +9773,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9834,14 +9804,14 @@
         <v>94</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9910,10 +9880,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10013,10 +9983,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10118,10 +10088,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10161,7 +10131,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10223,10 +10193,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10252,10 +10222,10 @@
         <v>87</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10326,13 +10296,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10357,16 +10327,16 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10435,10 +10405,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10538,10 +10508,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10643,10 +10613,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10686,7 +10656,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10748,10 +10718,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10777,13 +10747,13 @@
         <v>87</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10853,13 +10823,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -10884,14 +10854,14 @@
         <v>94</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -10960,10 +10930,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11063,10 +11033,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11168,10 +11138,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11211,7 +11181,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -11273,10 +11243,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11302,10 +11272,10 @@
         <v>87</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11376,13 +11346,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -11407,14 +11377,14 @@
         <v>94</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -11483,10 +11453,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11586,10 +11556,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11691,10 +11661,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11734,7 +11704,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11796,10 +11766,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11825,10 +11795,10 @@
         <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11855,13 +11825,13 @@
         <v>77</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>77</v>
@@ -11899,13 +11869,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -11930,14 +11900,14 @@
         <v>94</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12006,10 +11976,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12109,10 +12079,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12214,10 +12184,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12257,7 +12227,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -12319,10 +12289,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12348,10 +12318,10 @@
         <v>124</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12422,13 +12392,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12453,14 +12423,14 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12529,10 +12499,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12632,10 +12602,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12737,10 +12707,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12780,7 +12750,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12842,10 +12812,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12871,10 +12841,10 @@
         <v>87</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12945,13 +12915,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12976,14 +12946,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13052,10 +13022,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13155,10 +13125,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13260,10 +13230,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13303,7 +13273,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13365,10 +13335,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13394,10 +13364,10 @@
         <v>87</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13468,13 +13438,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13499,16 +13469,16 @@
         <v>94</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13577,10 +13547,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13680,10 +13650,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13785,10 +13755,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13828,7 +13798,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13890,10 +13860,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13919,13 +13889,13 @@
         <v>87</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -13995,10 +13965,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14038,7 +14008,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14100,10 +14070,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14126,13 +14096,13 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14203,13 +14173,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14234,14 +14204,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14310,10 +14280,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14413,10 +14383,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14516,13 +14486,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14547,14 +14517,14 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14623,10 +14593,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14726,10 +14696,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14831,10 +14801,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14874,7 +14844,7 @@
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="S124" t="s" s="2">
         <v>77</v>
@@ -14936,10 +14906,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14965,10 +14935,10 @@
         <v>87</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15039,13 +15009,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>77</v>
@@ -15070,14 +15040,14 @@
         <v>94</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -15146,10 +15116,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15249,10 +15219,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15354,10 +15324,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15397,7 +15367,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>77</v>
@@ -15459,10 +15429,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15488,10 +15458,10 @@
         <v>87</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -15562,13 +15532,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15593,14 +15563,14 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15669,10 +15639,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15772,10 +15742,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15877,10 +15847,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15920,7 +15890,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15982,10 +15952,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16011,10 +15981,10 @@
         <v>124</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16085,13 +16055,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16116,14 +16086,14 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16192,10 +16162,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16295,10 +16265,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16400,10 +16370,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16443,7 +16413,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16505,10 +16475,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16534,10 +16504,10 @@
         <v>148</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16564,13 +16534,13 @@
         <v>77</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>77</v>
@@ -16608,13 +16578,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16639,14 +16609,14 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16715,10 +16685,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16818,10 +16788,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16923,10 +16893,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16966,7 +16936,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17028,10 +16998,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17057,10 +17027,10 @@
         <v>124</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17131,13 +17101,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17162,14 +17132,14 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17238,10 +17208,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17341,10 +17311,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17446,10 +17416,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17489,7 +17459,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17551,10 +17521,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17580,10 +17550,10 @@
         <v>148</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17610,13 +17580,13 @@
         <v>77</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>77</v>
@@ -17654,13 +17624,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17685,14 +17655,14 @@
         <v>94</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17761,10 +17731,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17864,10 +17834,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -17967,13 +17937,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>77</v>
@@ -17998,14 +17968,14 @@
         <v>94</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>77</v>
@@ -18074,10 +18044,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18177,10 +18147,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18282,10 +18252,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18325,7 +18295,7 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>77</v>
@@ -18387,10 +18357,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18413,13 +18383,13 @@
         <v>77</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -18490,10 +18460,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18533,7 +18503,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18595,10 +18565,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18621,13 +18591,13 @@
         <v>77</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18698,10 +18668,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18741,7 +18711,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18803,10 +18773,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18829,13 +18799,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -18906,13 +18876,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -18937,14 +18907,14 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19013,10 +18983,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19116,10 +19086,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19221,10 +19191,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19264,7 +19234,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19326,10 +19296,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19352,13 +19322,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19429,13 +19399,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19460,14 +19430,14 @@
         <v>94</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19536,10 +19506,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19639,10 +19609,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19742,10 +19712,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>101</v>
@@ -19773,14 +19743,14 @@
         <v>94</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -19849,10 +19819,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -19952,10 +19922,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20057,10 +20027,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20100,7 +20070,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20162,10 +20132,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20191,10 +20161,10 @@
         <v>124</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -20265,13 +20235,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20296,14 +20266,14 @@
         <v>94</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20372,10 +20342,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20475,10 +20445,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20580,10 +20550,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20623,7 +20593,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20685,10 +20655,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20711,13 +20681,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -20788,10 +20758,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20831,7 +20801,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20893,10 +20863,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20919,13 +20889,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20996,13 +20966,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21027,14 +20997,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21103,10 +21073,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21206,10 +21176,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21311,10 +21281,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21354,7 +21324,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21416,10 +21386,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21445,10 +21415,10 @@
         <v>87</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21519,7 +21489,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>114</v>
@@ -21562,7 +21532,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -21624,7 +21594,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>123</v>
@@ -21650,13 +21620,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21858,13 +21828,13 @@
         <v>77</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
